--- a/spliced/falling/2023-03-25_17-59-08/gyroscope_selected.xlsx
+++ b/spliced/falling/2023-03-25_17-59-08/gyroscope_selected.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -670,17 +670,6 @@
         <v>0.06688974797725671</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>-0.0070249503478407</v>
-      </c>
-      <c r="B22" t="n">
-        <v>0.098502017557621</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.1296561509370803</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/spliced/falling/2023-03-25_17-59-08/gyroscope_selected.xlsx
+++ b/spliced/falling/2023-03-25_17-59-08/gyroscope_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,222 +452,332 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-0.0303905457258224</v>
+        <v>-0.0410806871950626</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0251981914043426</v>
+        <v>-0.0163406450301408</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.0348193198442459</v>
+        <v>-0.015118914656341</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.0346666015684604</v>
+        <v>-0.022754730656743</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0082466807216405</v>
+        <v>-0.0708603709936142</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.0271835029125213</v>
+        <v>-0.0030543261673301</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.1174388453364372</v>
+        <v>0.0134390350431203</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.140499010682106</v>
+        <v>-0.0337503030896186</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1302670091390609</v>
+        <v>0.0230601634830236</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-0.1805106848478317</v>
+        <v>-0.0311541277915239</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.266184538602829</v>
+        <v>-0.0189368221908807</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.0308486949652433</v>
+        <v>0.0268780700862407</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-0.1626428663730621</v>
+        <v>-0.008399397134780801</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.379652738571167</v>
+        <v>-0.0177150927484035</v>
       </c>
       <c r="C6" t="n">
-        <v>0.06261368840932841</v>
+        <v>0.0058032199740409</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.0490219369530677</v>
+        <v>-0.0368046313524246</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.1159116774797439</v>
+        <v>-0.0198531206697225</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3532328307628631</v>
+        <v>0.0143553335219621</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.0462730415165424</v>
+        <v>-0.0303905457258224</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.1301143020391464</v>
+        <v>0.0251981914043426</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0424551330506801</v>
+        <v>-0.0348193198442459</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.1779145002365112</v>
+        <v>0.0346666015684604</v>
       </c>
       <c r="B9" t="n">
-        <v>0.9054549932479858</v>
+        <v>0.0082466807216405</v>
       </c>
       <c r="C9" t="n">
-        <v>-1.665982246398926</v>
+        <v>-0.0271835029125213</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-0.7797694802284241</v>
+        <v>0.1174388453364372</v>
       </c>
       <c r="B10" t="n">
-        <v>2.544864654541016</v>
+        <v>-0.140499010682106</v>
       </c>
       <c r="C10" t="n">
-        <v>-3.356246471405029</v>
+        <v>0.1302670091390609</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-1.158047795295715</v>
+        <v>-0.1805106848478317</v>
       </c>
       <c r="B11" t="n">
-        <v>0.633009135723114</v>
+        <v>-0.266184538602829</v>
       </c>
       <c r="C11" t="n">
-        <v>-1.008691191673279</v>
+        <v>-0.0308486949652433</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-0.3301726579666137</v>
+        <v>-0.1626428663730621</v>
       </c>
       <c r="B12" t="n">
-        <v>-2.484847068786621</v>
+        <v>-0.379652738571167</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2561052441596985</v>
+        <v>0.06261368840932841</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.09498954564332961</v>
+        <v>0.0490219369530677</v>
       </c>
       <c r="B13" t="n">
-        <v>0.5517640113830566</v>
+        <v>-0.1159116774797439</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8726209998130798</v>
+        <v>0.3532328307628631</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.1779145002365112</v>
+        <v>0.0462730415165424</v>
       </c>
       <c r="B14" t="n">
-        <v>-0.2057088762521743</v>
+        <v>-0.1301143020391464</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.0172569435089826</v>
+        <v>0.0424551330506801</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-0.3599523603916168</v>
+        <v>0.1779145002365112</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.3149010241031647</v>
+        <v>0.9054549932479858</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.7423539757728577</v>
+        <v>-1.665982246398926</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-0.022754730656743</v>
+        <v>-0.7797694802284241</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0948368310928344</v>
+        <v>2.544864654541016</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.1800525337457656</v>
+        <v>-3.356246471405029</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-0.0279470849782228</v>
+        <v>-1.158047795295715</v>
       </c>
       <c r="B17" t="n">
-        <v>0.1127046346664428</v>
+        <v>0.633009135723114</v>
       </c>
       <c r="C17" t="n">
-        <v>0.2240348309278488</v>
+        <v>-1.008691191673279</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-0.07605272531509399</v>
+        <v>-0.3301726579666137</v>
       </c>
       <c r="B18" t="n">
-        <v>-0.1412625908851623</v>
+        <v>-2.484847068786621</v>
       </c>
       <c r="C18" t="n">
-        <v>0.1592831164598465</v>
+        <v>0.2561052441596985</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-0.0526871271431446</v>
+        <v>0.09498954564332961</v>
       </c>
       <c r="B19" t="n">
-        <v>-0.1530217379331588</v>
+        <v>0.5517640113830566</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.0560468845069408</v>
+        <v>0.8726209998130798</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.0149661982432007</v>
+        <v>0.1779145002365112</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0545197241008281</v>
+        <v>-0.2057088762521743</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.08109235763549801</v>
+        <v>-0.0172569435089826</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
+        <v>-0.3599523603916168</v>
+      </c>
+      <c r="B21" t="n">
+        <v>-0.3149010241031647</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-0.7423539757728577</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>-0.022754730656743</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.0948368310928344</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-0.1800525337457656</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>-0.0279470849782228</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.1127046346664428</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.2240348309278488</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>-0.07605272531509399</v>
+      </c>
+      <c r="B24" t="n">
+        <v>-0.1412625908851623</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.1592831164598465</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>-0.0526871271431446</v>
+      </c>
+      <c r="B25" t="n">
+        <v>-0.1530217379331588</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-0.0560468845069408</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>0.0149661982432007</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0.0545197241008281</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-0.08109235763549801</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
         <v>-0.0088575463742017</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B27" t="n">
         <v>0.0604756586253643</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C27" t="n">
         <v>0.06688974797725671</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>-0.0070249503478407</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0.098502017557621</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.1296561509370803</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>-0.0024434609804302</v>
+      </c>
+      <c r="B29" t="n">
+        <v>-0.0125227374956011</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-0.0360410511493682</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>0.016951510682702</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0.0704022198915481</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.0198531206697225</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>-0.00335975876078</v>
+      </c>
+      <c r="B31" t="n">
+        <v>-0.0123700210824608</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.0325285755097866</v>
       </c>
     </row>
   </sheetData>
